--- a/public/all_data.xlsx
+++ b/public/all_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aneesh/Documents/Asp/Stanford/Soph/History98/powerViz/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aneesh/Documents/Asp/Stanford/Soph/History98/powerVisualization/history98/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="1880" windowWidth="24720" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="5700" yWindow="860" windowWidth="24720" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -358,8 +358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144:B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2799,6 +2799,9 @@
       <c r="A144">
         <v>0.16735920000000001</v>
       </c>
+      <c r="B144">
+        <v>4.4128500000000001E-2</v>
+      </c>
       <c r="C144">
         <v>2.1007700000000001E-2</v>
       </c>
@@ -2813,6 +2816,9 @@
       <c r="A145">
         <v>0.16924729999999999</v>
       </c>
+      <c r="B145">
+        <v>4.7328700000000001E-2</v>
+      </c>
       <c r="C145">
         <v>2.0574200000000001E-2</v>
       </c>
@@ -2827,6 +2833,9 @@
       <c r="A146">
         <v>0.18257029999999999</v>
       </c>
+      <c r="B146">
+        <v>4.7328700000000001E-2</v>
+      </c>
       <c r="C146">
         <v>2.1150499999999999E-2</v>
       </c>
@@ -2841,6 +2850,9 @@
       <c r="A147">
         <v>0.18392210000000001</v>
       </c>
+      <c r="B147">
+        <v>4.9087600000000002E-2</v>
+      </c>
       <c r="C147">
         <v>2.1977300000000002E-2</v>
       </c>
@@ -2855,6 +2867,9 @@
       <c r="A148">
         <v>0.19026419999999999</v>
       </c>
+      <c r="B148">
+        <v>4.6246599999999999E-2</v>
+      </c>
       <c r="C148">
         <v>2.18718E-2</v>
       </c>
@@ -2868,6 +2883,9 @@
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.1985779</v>
+      </c>
+      <c r="B149">
+        <v>4.9087600000000002E-2</v>
       </c>
       <c r="C149">
         <v>2.1157499999999999E-2</v>
